--- a/biology/Botanique/Tsuga_sieboldii/Tsuga_sieboldii.xlsx
+++ b/biology/Botanique/Tsuga_sieboldii/Tsuga_sieboldii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tsuga sieboldii, nommé communément en japonais Tsuga (栂), est une espèce d’arbres appartenant à la famille des Pinaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve au Japon (sur les îles de Honshu, Kyushu et Shikoku) ainsi qu'en Corée du Sud. Il pousse sur les collines et les montagnes à une altitude entre 400 et 1 500 m. Le climat est tempéré humide avec des précipitations annuelles entre 1 000 et 2 000 mm. L'hiver est relativement doux[1]. 
-Il pousse avec d'autres conifères : Abies firma, Pseudotsuga japonica, Chamaecyparis obtusa, Cryptomeria japonica, Pinus densiflora, Pinus parviflora et Sciadopitys verticillata, ainsi qu'avec des feuillus dont : Stewartia monadelpha, Distylium racemosum et Trochodendron aralioides[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve au Japon (sur les îles de Honshu, Kyushu et Shikoku) ainsi qu'en Corée du Sud. Il pousse sur les collines et les montagnes à une altitude entre 400 et 1 500 m. Le climat est tempéré humide avec des précipitations annuelles entre 1 000 et 2 000 mm. L'hiver est relativement doux. 
+Il pousse avec d'autres conifères : Abies firma, Pseudotsuga japonica, Chamaecyparis obtusa, Cryptomeria japonica, Pinus densiflora, Pinus parviflora et Sciadopitys verticillata, ainsi qu'avec des feuillus dont : Stewartia monadelpha, Distylium racemosum et Trochodendron aralioides.
 </t>
         </is>
       </c>
